--- a/nr-publish-ballot-2/ig/StructureDefinition-fr-core-location.xlsx
+++ b/nr-publish-ballot-2/ig/StructureDefinition-fr-core-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T08:22:20+00:00</t>
+    <t>2026-01-28T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>French profile of Location.
-Profil français de la ressource Location</t>
+    <t xml:space="preserve">Ressource Location adaptée au contexte français. 
+Cette ressource est utilisée pour représenter un lieu physique, telle qu'une salle d'examen, 
+un lit d'hôpital ou une chambre d'hôpital. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -264,7 +265,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-location-type-chambre:Location Type Chambre {extension('http://fhir.fr/StructureDefinition/fr-core-location-type-chambre').exists() implies type.coding.where(code = 'CHAMB').exists()}inv-location-type-lit:Location Type Lit {extension('http://fhir.fr/StructureDefinition/fr-core-location-position-lit').exists() implies type.coding.where(code = 'LIT').exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -619,26 +620,42 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Location.extension:usePeriod</t>
-  </si>
-  <si>
-    <t>usePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-use-period|2.2.0-ballot-2}
+    <t>Location.extension:typeChambre</t>
+  </si>
+  <si>
+    <t>typeChambre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-type-chambre|2.2.0-ballot-2}
 </t>
   </si>
   <si>
-    <t>FR Core Use Period Extension</t>
-  </si>
-  <si>
-    <t>Extension permettant d'indiquer la période d'utilisation d'une Location.</t>
+    <t>FR Core Location Extension - Type de chambre</t>
+  </si>
+  <si>
+    <t>Type de chambre</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Location.extension:positionLit</t>
+  </si>
+  <si>
+    <t>positionLit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-lit|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Location Extension - Position du lit</t>
+  </si>
+  <si>
+    <t>Position du lit dans la chambre</t>
+  </si>
+  <si>
     <t>Location.modifierExtension</t>
   </si>
   <si>
@@ -662,7 +679,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiant fonctionnel du lieu. Il est recommandé de remplir ce champs pour faciliter l'identification des ressources.</t>
+    <t>Unique code or number identifying the location to its users</t>
   </si>
   <si>
     <t>Unique code or number identifying the location to its users.</t>
@@ -677,297 +694,157 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Location.identifier.id</t>
-  </si>
-  <si>
-    <t>Location.identifier.extension</t>
-  </si>
-  <si>
-    <t>Location.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Location.identifier.type</t>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t>The operational status of the location (typically only for a bed/room)</t>
+  </si>
+  <si>
+    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
+  </si>
+  <si>
+    <t>The operational status if the location (where typically a bed/room).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
+    <t>Name of the location as used by humans</t>
+  </si>
+  <si>
+    <t>Name of the location as used by humans. Does not need to be unique.</t>
+  </si>
+  <si>
+    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>Location.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the location was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Location.description</t>
+  </si>
+  <si>
+    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
+  </si>
+  <si>
+    <t>Description of the Location, which helps in finding or referencing the place.</t>
+  </si>
+  <si>
+    <t>Humans need additional information to verify a correct location has been identified.</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+  </si>
+  <si>
+    <t>Location.mode</t>
+  </si>
+  <si>
+    <t>instance | kind</t>
+  </si>
+  <si>
+    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+  </si>
+  <si>
+    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
+  </si>
+  <si>
+    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC].determinerCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Location.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-identifier-type|2.2.0-ballot-2</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Location.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Location.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Location.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
+    <t>Type of function performed</t>
+  </si>
+  <si>
+    <t>Indicates the type of function performed at the location.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot-2</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>Location.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Location.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2)
+    <t>Contact details of the location</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>Location.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t>The operational status of the location (typically only for a bed/room)</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
-  </si>
-  <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
-  </si>
-  <si>
-    <t>Location.name</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans. Does not need to be unique.</t>
-  </si>
-  <si>
-    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>Location.alias</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the location was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>Location.description</t>
-  </si>
-  <si>
-    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
-  </si>
-  <si>
-    <t>Description of the Location, which helps in finding or referencing the place.</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct location has been identified.</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
-  </si>
-  <si>
-    <t>Location.mode</t>
-  </si>
-  <si>
-    <t>instance | kind</t>
-  </si>
-  <si>
-    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
-  </si>
-  <si>
-    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
-  </si>
-  <si>
-    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC].determinerCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Location.type</t>
-  </si>
-  <si>
-    <t>Type of function performed</t>
-  </si>
-  <si>
-    <t>Indicates the type of function performed at the location.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot-2</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>Location.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>Location.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
     <t>Physical location</t>
   </si>
   <si>
@@ -995,7 +872,10 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.2.0-ballot-2</t>
+    <t>Physical form of the location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -1080,6 +960,10 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
     <t>Organization responsible for provisioning and upkeep</t>
   </si>
   <si>
@@ -1098,7 +982,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot-2)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1112,106 +996,6 @@
   </si>
   <si>
     <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>Location.partOf.id</t>
-  </si>
-  <si>
-    <t>Location.partOf.extension</t>
-  </si>
-  <si>
-    <t>Location.partOf.extension:positionRoom</t>
-  </si>
-  <si>
-    <t>positionRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-room|2.2.0-ballot-2}
-</t>
-  </si>
-  <si>
-    <t>FR Core Location Part Of Position Room Extension</t>
-  </si>
-  <si>
-    <t>Position du lit dans la chambre.
-Position of the bed in the bedroom</t>
-  </si>
-  <si>
-    <t>Location.partOf.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Location.partOf.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Location.partOf.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Location.partOf.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Location.hoursOfOperation</t>
@@ -1624,7 +1408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL65"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1635,7 +1419,7 @@
   <cols>
     <col min="1" max="1" width="36.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.66796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1643,7 +1427,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1652,13 +1436,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1668,7 +1452,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.43359375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3729,43 +3513,41 @@
         <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3813,7 +3595,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3822,13 +3604,13 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3843,7 +3625,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3856,23 +3638,25 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3921,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3933,21 +3717,21 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3958,7 +3742,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3967,19 +3751,21 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4027,66 +3813,64 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4111,57 +3895,57 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4178,26 +3962,22 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4221,13 +4001,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4245,7 +4025,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4260,18 +4040,18 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4279,7 +4059,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>85</v>
@@ -4294,20 +4074,18 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4331,29 +4109,31 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4368,7 +4148,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4376,10 +4156,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4387,10 +4167,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4399,22 +4179,22 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4427,7 +4207,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4463,13 +4243,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4478,7 +4258,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4497,7 +4277,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4520,10 +4300,10 @@
       <c r="M27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4535,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4571,7 +4351,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4586,7 +4366,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4594,10 +4374,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4620,16 +4400,20 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4653,13 +4437,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4677,7 +4461,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4692,10 +4476,10 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -4714,7 +4498,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4734,9 +4518,7 @@
       <c r="M29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4761,13 +4543,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4785,13 +4565,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4800,18 +4580,18 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4822,19 +4602,19 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>261</v>
@@ -4867,13 +4647,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4891,13 +4671,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4906,18 +4686,18 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4937,19 +4717,23 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4973,13 +4757,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4997,7 +4781,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5012,18 +4796,18 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5046,18 +4830,18 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5081,13 +4865,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5105,7 +4889,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5120,18 +4904,18 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5142,7 +4926,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5154,19 +4938,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5215,13 +4997,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5230,7 +5012,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5238,10 +5020,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5261,21 +5043,19 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5323,7 +5103,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5335,10 +5115,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5346,21 +5126,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5369,23 +5149,21 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5409,13 +5187,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5433,65 +5211,69 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5515,11 +5297,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5537,7 +5321,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5549,21 +5333,21 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5571,10 +5355,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5586,13 +5370,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5643,13 +5427,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -5658,7 +5442,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5666,10 +5450,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5677,7 +5461,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5692,20 +5476,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5753,10 +5533,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>85</v>
@@ -5768,7 +5548,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5776,10 +5556,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5799,21 +5579,19 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5837,11 +5615,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5859,7 +5639,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5874,18 +5654,18 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5905,20 +5685,22 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5967,7 +5749,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5982,7 +5764,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5990,10 +5772,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6016,16 +5798,18 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6073,7 +5857,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6085,10 +5869,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6096,14 +5880,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6122,16 +5906,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6181,7 +5965,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6193,10 +5977,10 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6204,46 +5988,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6291,22 +6071,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6314,21 +6094,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6340,15 +6120,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6397,22 +6179,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>113</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6420,42 +6202,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6503,22 +6289,22 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>189</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6526,10 +6312,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6540,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6552,13 +6338,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6585,13 +6371,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6609,13 +6395,13 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
@@ -6624,7 +6410,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6632,10 +6418,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6655,23 +6441,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6719,7 +6501,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6516,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6742,10 +6524,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6768,18 +6550,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6827,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6842,7 +6622,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6850,10 +6630,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6876,13 +6656,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6933,7 +6713,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6945,10 +6725,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6956,21 +6736,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -6982,17 +6762,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7029,31 +6807,31 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>103</v>
@@ -7064,14 +6842,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7080,7 +6856,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7092,16 +6868,18 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7149,7 +6927,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>113</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7161,1514 +6939,12 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL65" t="s" s="2">
         <v>76</v>
       </c>
     </row>
